--- a/data/meta_data/plate10_setup_final.xlsx
+++ b/data/meta_data/plate10_setup_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E141DB3-E8C3-3D4E-ACA6-767652121354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073EA844-0565-C34A-B1F6-B08E6E0EA65C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="5940" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="880" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate10_setup_final" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
   <si>
     <t>sample_ID</t>
   </si>
@@ -336,24 +336,6 @@
   </si>
   <si>
     <t>tube_no</t>
-  </si>
-  <si>
-    <t>29A</t>
-  </si>
-  <si>
-    <t>29B</t>
-  </si>
-  <si>
-    <t>29C</t>
-  </si>
-  <si>
-    <t>30A</t>
-  </si>
-  <si>
-    <t>30B</t>
-  </si>
-  <si>
-    <t>30C</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1426,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86:G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3405,36 +3387,6 @@
       </c>
       <c r="G85" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G91" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
